--- a/SurveyLink_Excel/Survey_Links.xlsx
+++ b/SurveyLink_Excel/Survey_Links.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="3900" windowWidth="17325" windowHeight="6345"/>
+    <workbookView windowHeight="6345" windowWidth="17325" xWindow="2595" yWindow="3900"/>
   </bookViews>
   <sheets>
-    <sheet name="SurveyLinks" sheetId="1" r:id="rId1"/>
-    <sheet name="SurveyAnswers" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SurveyLinks" r:id="rId1" sheetId="1"/>
+    <sheet name="SurveyAnswers" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <oleSize ref="A1:Q19"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>Surveylinks</t>
   </si>
@@ -38,12 +38,418 @@
   </si>
   <si>
     <t>ResponseAns</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/b31UfhzbkPKy8xPt1GBKjA==/fVb2lvg7LJPszWZCryBa8lHqktmNht5ZyHoLM5gtjqY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/CSDmYLiY7B0t3pXMv01B3A==/5ctOxtF8f%20PR%20RFcDL36s%20P3kumACIB5sslm5M5%20dTo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Z1VzsJG7baiCDCBQhJXMJg==/60OHRFMsUPTewGxGGHxUKHdJjOj0l8ioRVdr9ZaIPy8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/oOtafNk7WCNzZXEhJgARYA==/LD8veuoQofHzHei2YTpQEq8pjt7ufob7lmPi5DxnZPU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/cZNDFg-hzNSxvTfYzj20GA==/oBc9Hz5ygZywjCB%20AjdXZjVWsVoShEuYoiRKzFJfLFI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/QnmSaVybM72F3C3p9ghdGg==/zVv57oyX8LckIbA2YOuq-jjxcBy8bZ2zz7kFRyWEWbE=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/xPeqSe9l50sGv5%20uaBthFA==/Twvnqgfx8dB9QRDJEeYDxUGdeES4xoUiRJquEHoqR-U=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/tOb4qPH5OSO3NNUlPGoiyw==/M9CK%20DZAtayXWzzj1O1BzbzaXd%20xuGUFsCCIeMTYsls=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/6lRH3tyCntB85oBXJiNvjw==/BXSp-OVGkllK7WCaHv0W%20jiOPytlp-KJNURNBDVJ1%208=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/SyKQbdwb1MoNAHsXzU47Cw==/GBjo1RylboXsgc0CSE7DfJxdj2gtLSjgfLq3HcdQpFA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/QJ2dvh7w1xqnR108-OCF5Q==/jsr2uL7tk%20IbzFvFCq4TcWJ3uGhFCQBZiJG8Q9nJ1%20E=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/hzWp5US17I8yCH2FIxcA9g==/nbVeamjSd01E%20SbGo9Bi7kWrpKbCtn2FrYweBQOYp74=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/kV7ouzs2LczXWeo6b4Ngyw==/NdUkbvQ13bQjl3zsX3AFobqXAQVefKkGIYBqMEtcGqc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/pV1P07on0CzunOJiEQuPRw==/JwG7pKtmTuB2qSodDeXD9rWlY8wVW8eGI283VY2SkWk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/qisXihIf%208pyoLYWSeBLvA==/hP93HFC0y3xxtH%20KU0sQDrkg1aHqvHUrb32DmZnd2uI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/QEbmwLyHse2T7jcZ80Av8g==/TrAMzpMPrYGsBAcAFeVA4qNd2GPScCvnHCk8ZvAYy0A=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/46jM8tpA5wtAXQ2nmbhE8w==/vkD6wbe2D29kbX2fJEd78ZqZ-qnfnPESVuB4ZEaEPl0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/xV48NAkkLpkef7Gx8qgzOQ==/VkMMndG%20-yqk3CfDbinJ-lzC5Onl-SR%20rz0GjP1b0F8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/e-f9T08EthcJEoHVC%20wnzg==/yDG%20hM6aHmU-N0625fZW03Mo8sZ-mvRYBrnJOMery0I=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/yCUQlLpVJAbqgWATQ%20YA8Q==/BywnOOuF2i7ve-xBrJDQIEzZ5LafPIURxrNRR4hEudM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/uyr%20rV41kxOHGfKpMPFvCw==/HpBk8erlL9JGaORoZqzfuA2CuaLtMRdu%20Hr2ZB-o6rw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/ONkDItbBdqzsLj8mE4rorw==/Irp2PjRYtbjSbMQJQ5lY7sasjbr9%20sj9o3QBOeSokgk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/qa-rix0xrVx-o%2043l0rQcw==/cJ6aELgrc1h1RBu01QEpuHuUZeMVKVfMFhx24oDHpkA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/gdb3ddTbAhCcN2zJ9aiMKg==/I1Dgg6VCnHvXN7KAvI3iRnSBxo6zFwKObH-m7nLB9j8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/75ZJM4dEoxyPxlepjW16Wg==/2ZMbn0grvU1y8JrUs8i92KS7lGuRojF0ZOyIXlEkDbw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/v%20fol-srttav0EeJMLOZXw==/sIUrT02Ktp2T8q6I3fhHCAzkpkunaQ31RZvyMtjSdLU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/hnVj%20ephPPzsfV71d86yAA==/g4WGLsp4GskQ4wdCtsAutWrFU-UTEThAAWWiFkslU9g=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/PMYg2VWFSV6KTGiY%20scBGw==/Vo0FrXovGuyE7EJL41EYgbS0XCuU7C9qBzShHDEDV3g=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Aorbnn4F5eI66LjlkViU9A==/OkjOA4%20ctSlmiu6So12EF7iIn1%20Nw2v5-R5xoHM74gY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/jqE8OGCWXPdayvk%200Dp39g==/ahUAea58JxIujlwkgunW-BlCv48u0FNFXAU4LPxY%20aw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/yE49-lXAXVCIA2x2YIzagA==/IiWBlA76ihnbMMNsqUfeWajMjYbOdoggHVOYzTWXKt4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/aZWeGR7hPrg6EsmhQyjLig==/6IdRy4riPQJIff2QDHG3wdpsrN78VlYzIxWVARYcUgA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/1BnlfRpwqiBydfww2h2WOw==/cPn2lXqVZ06it3%20pyed-AJG1TGTh2SDBMRhxKB8XHnw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/5IaUISMmu0NvnNl87hZ43A==/D2MAy0GNKoS0znCAbcVrRtVqEMlITHmjXk6TsSky0fo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/%20B2Afmi0Bo1LAY2Y-X%20m0g==/pUrHc9Xn8OYMuU7dnB2kX6kNEPi9wHqYCLtzLTbN12k=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/0mN%20chwrNcPhqUn53hr2lg==/XRQl3DeMvmfeJfGHjquT7rTvOJfNX9RSX0Ya9k0zaxI=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=surveyName74&amp;oq=surveyName74&amp;aqs=chrome..69i57.2999j0j7&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/te-ONBEJZmSpqHI708Na0Q==/GLFN%20Qho%20HLEF4OmVgWXcI05KkyCvRWBBMKhT0AWFcM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/rULJY8bLKPUxI%20oUg1y4LA==/onlJY6I23RPqfeG0IVNC87kvWLCJ01uVh40pK85zRU8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/WkL8rAStIgSe4jewFrNAdw==/ZbGjWQKvkXGbAEtxxP6Xq87xKzfsFkQoab1tIjK19vw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/4hoXir05759mTBRLwROv4A==/0YMwivnGC4aZSN3WNMTWJ4gHuRoCbkZavT3KrSyRLeY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/OTGcHEIkOySuHt0ni4qSVw==/S%20bG7InktM7blKI2CaFuL3LBFnZJanu2mqXKdXn88mM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/SZU8mVp8n5FwRKpUCMw5Iw==/5lQC3JCrSIzgyosJfEzFNnMjfLl1A19xDmyi1Db5ZkU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/RbYHuE5hXsEyLceSjX9WgA==/qHsQ9MPzrFDrFo3MN%205qjcXPDldyYmilI0EmjAO-07I=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/U6tMFxNg69WIF3d1R%200SJw==/FeATPgCm5Dbli37kTqQhc0HwWab5KbEaBAK6O4gT7GY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/LfWfdxTKP1ZTV8Tx%20kmi2w==/ioAGcEzDO5kQ0PnoY23VFBdQJu-TD-P7jDds4HtEaq8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/N9KZBb5Zag1g40n%20CSNLNg==/YmOkqWZM0q3Clb4954zXWr%200B4A1UHCvRY0ZznVSQr4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/fVdGK5Z5auciIycfeoxpaQ==/ewzxY2AYfuhcn%20DBRmxa8lYlXMEBI5l1YSgEb45zKXU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/MvAZS2DustGzJGq25c7I0g==/mtrl-11SGIXrt%20hNWog67MRnOno9VE6leOKVthSoelc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/7mw1zRbFdy9m3HQ6YG8WTw==/oxvcUflmHI4BD%20tJeVAZi%20znJZqN4r-9oVo%20COm7F3c=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/PGTE9r0vNb%20fSEzFt%20hatQ==/6%20Ivh38v0DQkMUR6aTJNQAOYy5SUJt3TuXJ1n2C8r3k=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/HJvcUBXz5S0iI942LrlorQ==/mCAT4SAVNgLQ4fxMMFGBiGp9HM3MeKc%20t6-UkK9ZtCo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/vDQiB%20vtFHQyFSbyzkwIrA==/gNasWKNG5x8yLyRSAGAz7WJXGLuVSzPnbjcrLVyR1g4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/6w6pCoFYkZ5rxogXm%20EDrg==/V7T1FJ7ZP8%20lxy5Vx3rkJYRHrIDH4CI6y5qkQkkU88E=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/AuhdVnOqmMtqeCjNIYUavA==/vjuXm%20z0gmUX-mxA5zQKdwL-WcWQDG-dz-Jctn%20RGSM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/O28AxlExtkk5qlhLp7tNJw==/7UB1Va8FDN-nbi4hHKgsc5R3YlVvjB15RxEUKVW8QZ0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/EG6qq6wo%20NHeAgpbjj07Cw==/brcRhoND3rUdofDb87S87Ny2xsMQp77maj1PzNuilU4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/%20GJlLHZZh0iPhBIji83EjA==/kSlRTplB01Stpn8ZNE91w-9%20vX2y0Bpl1pUlbqsv6oQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/DIOY6HcuvS01CGtBUaf6vg==/K9aTioq4nUivnQhgIbuDnSlZtgu73cLobsJxRY8ESqg=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Iw5vrUN8YzaBdxG04GpSlA==/Iu4W-WctEaQ5AXHmyBZIEIpKJtmmmtjBocWAX81pTdU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/s1y5yOxsOr5h0hNXgFNuCw==/Sbm48sw7aBTJwQCSFThmcgNc172XkUWl9uSnhGoiUAc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/7tKXELy80kG%207tiyOqahHQ==/3fZdQrBIRlL3KqZfat5J-NEERaSbbhRGGCZW4%20k6jXQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/MSqUUxMWyRrfmu6ljo0HvQ==/Mm5hCwLBZNxYlj1z5ap4gIVWD-BYDlkVaQluZzIVYJs=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/QKcH7G8XzPTHDXHK05Eo7w==/7K215qF6d97QzE4QyRGdhU-E2rVWzA15H5hK9j5olCk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/xFwFxhCpgnUMPER3QHX2CA==/EuLtrD0GcVV1g%20sAdxjXXxR8aG35RDaNAKzu-SbT6BY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/%20F%203YGptwnG5aWubL4ypBg==/6rbgzmHWurG0-c6fyyar22E8fOrMwKyBNIqNhKr51n8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/lpRUnUrYknwpjyJWEhLjog==/hHRaq--9Z5wC2MSyCYPWCDaZvYbvtbQOWf1RaQjQxsM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/5z1YD5ZX7HGAXa8YfXIfJQ==/dlCRuXanMwhit%20eXecJMQFUxqiKWcByw1-5e0IUaJVQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/osNMGiNLxjMPHa16n41CUw==/cggnnGr7yVA3YUdeFaSVLa6OV9JqrGulKFfANGqBAts=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/kst5UH05PBMQdi1fxYHb0g==/B%20eeaRfZJHGt2%20mEWC9b%20ow7HzjEZdpWu4TvARlhMA4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/F2SutWeDtRVO0pY6oNvoxg==/vwDRcmCgws11oRz7LJJzlkmYmhGXAvL9E967k0HbvJc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/hvyBULLRlOu4N2T-BrlLaQ==/flybe5rBcrvuGSkMU0O%20eQedHj1X%20V1mbDflpZu42nM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/j%20xXdqFdzq4MHI-lSN9HUA==/85BxriMDXDxQCC9hnhm9JB-IaTFurFIKCvF1ZT1y67U=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/7zwgGb1QSPf7tO6A%20cFGiw==/DXK0WgcEXwfj%20DznQG2i4Juj1ur67Z9G%20G2sFuqbcM4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/aioJJTF-qz8UqG-IRtwD-Q==/QH-OTVa6PkFf79FjQ2ynwpt-AHQkx-6m4MF2h9Kl4wo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/FxYEgCqjvQaleHCMR4GNKg==/BxTnIfNZv1-CnoMTJ6nmXrk5FUJffsrStEaIrqIYTGw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Q%20k7Wceozd3FwLGC9VbS8g==/rS69aHSsrlCXJ45tqs2q6SUE5UasOGq%20EdbVHemCNbM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/lRDuiStNNfdMZVCAmJ74Lw==/3lBDkP%20aCjtzo-NLwRxFoqIZkjY0MK5biHrGuJ50dPw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/-VjUWqALM2fJaVbHYOuwNw==/yPdZxd88%20ZonP7v6eLq-PEu2BD98HajEQlGwyTDaO8Q=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/fcj7FqdTEAL3gVcYu6XFJA==/AAdV3XNgHLI0GpKWDrrZ2-6frZPx3yq1-TDBES9K030=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/MB-7hSttCChQZ0wHCvU%20Pg==/OsfWEBl8ObrTLhUSRvGpHCctNC63swXrC9G2EwELyJM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/HYCtbXOz2Twgat1H4%203WPQ==/dh%20Cx0jOn7utxUfC7ePkz5uPdENkrQYKzzFzcn7T82w=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/ncso9GboPUkz9YMQdQ5Abg==/G0O2mwVWj-OX4P3pQhTcG7YIBNrNgK6H1325-Hfwq6I=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/zaBSrz9R-l3NkEjopMh4sQ==/r5wnwx08BGn4CoqvfZtjEqwAdMjAQermkCTO05bvxbM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/JISXuAxsIFdW8fUN4EqYyQ==/%20ONKSvYFSzGwp4Wy5cPg8Yjwk7WMXvjUmcqb%20oFHuNg=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/MHnVBf0zL0NCXKUuXbd9Xg==/WYO0UJdx4S5a5RRm9cUmPJLy66nMe4IgsSWxeAa4JOI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/jrwDjtxTjBuzVYUpDXa2vg==/JqyJ93esisaN5vIeMWe%20q3Ou1o80ujK7zy9ke6ydYI8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/c7%201eV4gmNtmDwtgF3yQsA==/-UVsGk56Yat5zdfISjLnqu0mDKpwdF3LfMpUmc2AlwA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/nd2yHR-p6jWsGWR7%201apww==/%20CNi6R1WWkx-uRvpU1eBBtQIwTlsTIDPhkKgcFfixiY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Hd1IxrRceAmVbWkVy2RNHA==/NEvi7VHtIYVar0iCdpu04tbXHOHh5rMUvwozuI8PMPk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/vMYEBFcQol3QitFrWOHvkw==/pIr-7LUQtiBooRaZp1lyN1AN9Fry3Aufix2ivzSt5EA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/6ZPyC8WTTkvazKk7PaZgjA==/GamIsqekRS8dUbLgwXIHXm14lGobO%20IJrQVKZKURoX0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/5Mo71Q25cZdiudDN21T0zg==/b%20KmOHXm0r3cED%20zz-i2UpmiIazG9P8GwE6gE0CALg0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/t85zi4VQvIQr3oMvR5nXNQ==/w2fn1QZ10cIzDIh7oTzAYT3DXCtKbkWojORe%20Y6YgH8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/STSvXUncR6-qs9j83aaZrA==/Ty4hVzAohFGR17svjmvlSeCuZepgHpKEgbrqNUtzDP4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/I8wp0unqkByFQETXLk%20hKQ==/cLPGKx085WTrrLL0w3nBXjvvhPolkadbXTWa6JC338E=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/6uhf%20ss3V5nwptORe-EM-w==/AeSiEUd4YgxnrAx2LPnV%20JV7sUduN0hriUWGT0th4aY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/onuzfwIEjvtoILjBJpUN9A==/TOAxMxQjpkfoi-mXY5WfpODpAYy12oTVMTKgM1X2aJA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/9K%205l5CBAcuY2C6COQTTsQ==/s2wC0tgvOlfWyDKIaYonhFhuDqmTrVToN9qO7Ec%20jHc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/YNiyvtK9YCXi0DhW2S6Gmg==/i9qrMneibxkTXgWb9P1keCIc4hhGmDBPhd0j4Y1PKLA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/uv-C7645ZDqsnhxapYqBrA==/6P6qmtAG-CsxiZXa1pu4fn%20FBLRlJMGB18jpA6kKJYU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/-f4BuqOsENonBCaBboAJZg==/GrlW8cJCIWvOLVBdPgY5KHu5nUF2UlBXzAt7e4jak-g=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/ICPSHx%20mr2SmZGJ4v8DtcA==/udNqD6CNI1S0bpJcq45boYv0Pwuz%20yx65-pUt8Osb2s=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/2%20DRRiMQfapsOHaXjcF7cg==/FzOR7Qhr4KoDS4Jy1c5cqdhpfCD7r-XwR8YepRrwA2Y=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/bNvJTreUi39e0y4OHq8NsA==/sQwMhyN2kJIpmXGwFGco4GNX6QoxP-EwIc7OP-B4FFc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Mz2rkkExxG2MpXVNz-lRiQ==/OULylgrWuPWJf8YI%206AxPGBnWpcyK-K4SWyBqYdgx4o=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/GZf2gU9Heyz4MajDUmxV%20g==/5B-bJpHiaEnreZKjFFwm0qFW7wqtS9jJDV7lMYHGAlk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/5MHJRh5PoieEYGhA46IdSA==/bGMDTUp49MjXN-WZV0n0RiFiUgAN7EOz23j8Xomyy7w=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/lX1f9J-iGrKu0E3FHid46w==/yinoy6xtRuWW324Yj6MnCY1GiM6XNb3KVz6yQx79Xw8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/GWMD42BPHan2tUgGeZsKuw==/SVZSfm%20KKvdV8X8tgVuLq9FaaZYcYmkAvGc89MRGpDQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/H0szTS0UPzHcYwx1g2RIuw==/vDpYYMsGyDQ2Vo%20Pl4mBalmP9ji95DvsWy-bVX2Veek=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/OSdgVDf7N6QCYXmrhMQgSA==/PuCXWVLQX%20PZiBKbATcuEJXQLN709M1FrYGESVlYnWM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/lVXLMEkIv7iJrq4D8aPF6g==/d-MvHo0vEwNRP1Af6YjAIsJk6fo5GIjQgHxcitzOT%208=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/jNJ8Jl2aEQSsoboyq0s4IQ==/PDfqodKrEwRrN2aGyyKR-A-7gKvsm3aOffZya94tMBE=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/jDJBZuiuozJT-h-MOLqJjw==/2G1NHiUpOt4fQOll53nQYIIJcxc4MXTCNnyFhby-plw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/l2q6si%203qKEk7Ig3QgiDNA==/HWDNkSpj4l2ReSGZWrgAEw7VV4BATR1WQqsn2MLcQEI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/S4Lg-onYfVAIbNek7CoqxQ==/hpcBW8fLWlmPOsKsND5MzFP569riA6oOMKUcnWgvfb0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/WJ9o5j%20C584mTWJmpbcomQ==/pBBSIMV-5XIErb%202kJXERiTlS6%208gBcZwWKrMU%20m1A4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/FI8bBRekhLCWmkckPZXVFw==/-ZnJy78J%20CkNtH4GqG%20ak692bvbg1mZ6NI3WhyAK45I=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/gpmGv3bHfX9Inbg5JN-iVQ==/nvnNLsLItxrP%20t6lbFuYGfGPl47FnhmdhII7bA9zHL0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/hUo3M4CwEf2sN0t2TDx2OQ==/4LDLD-zhk8rmr2TdCITeza6lbst9t7oeusYKQqesU6U=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/LydXrf61UYU7qJLx9chcjA==/u3Rg4Z7VvhaLubSRpr1O5c3IKnJj3%20%20GJ7ZyiNrx-XI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/MFDzPo17rUCNXkIOlUfnWg==/mtUlhiSt6Hxxajpb6Qmq1DuwiycvQPf6JlSQ3T7qq1o=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/fOjXdNvWSTrjch7QyiAenw==/Ir4YXUaE0-JGSEVJVARg6yyXY3iAEgG9L-RI-qNGY48=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/R5TvaGcYxBsqoB7xHg0y0A==/LugKAZJ5n2iJSZ7wW2P3jHMmNgFGkYGRf0C5pg4QZN4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/v6LxaLCvpWAlJThRG6QqjQ==/cXSlBrNxeKWVqMBwSvUMfV2p6HyyoJ5OldsCahrN3%208=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/PiKDW42KCuwxNCYKRyPDWA==/ZMbavrTz25AJtARnEAMyRb534GQ9EAa56IDlI-QuM58=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/NU91vz5xAwN8kWi3tArpzw==/Vd4Dp2vgUVeBkdFam0vb479slaO3elJJ30ERNRjMqc4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/VjgW5qUDLhT01QNegS5fwQ==/0YiD3HvlXyeACSYO72YZo%20tptWhBsGPgHM45SFO40Xo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/AaorhOBVtA6N69QqbALeYg==/uUmSexz8aFr6u66zERL3XTc12DMfPuZo2wcD0Cr5%20Jc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/qlJL4LRvDU7xLXeqz3cEeQ==/nkLXdert08pe90CIaPwdT6L4cFZ9ZWGcR8PKI1UrfwE=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/cbRDVFztr3HHnf-0QTsz9g==/XoQvR%20S5NpQhb9HJ0okV85FdZ0YspSzJ%20DKt-4yWdxk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/iTVtmK3GdZJswbPD2FTIsw==/dvARlvEXf654m95unJgq7mcwqBf%206B4DkiNZCfQkjY4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/PaZks-9je9QN6w7kQtSX8w==/d5OVojtmj69f7ReNSLo0AQP9bhejMQxmCYDbNucwFG4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/y8P8t%20OjNWAYFxSnOKjpGw==/djYzKu%208opj3MFAcWVSd6LFZxtlG9VDoZ9LuRizARVU=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -95,21 +501,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -118,10 +524,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -277,7 +683,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -286,13 +692,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -302,7 +708,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -311,7 +717,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -320,7 +726,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,12 +736,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -366,7 +772,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -385,7 +791,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -398,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -406,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -416,17 +822,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -448,14 +854,14 @@
       <c r="A10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -463,8 +869,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -599,7 +1005,7 @@
       <c r="C25" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -612,6 +1018,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SurveyLink_Excel/Survey_Links.xlsx
+++ b/SurveyLink_Excel/Survey_Links.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>Surveylinks</t>
   </si>
@@ -59,6 +59,162 @@
   </si>
   <si>
     <t>http://localhost:4034/Survey/Index/e-o4dsFxU0dDHBrtnhgkmQ==/p2N6P0E0m2JgMmvanYWKSdfRQIllYtCIvJuXQbucUvA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/rq79x8LfSwLUi%20xmwEdOSQ==/GdKNOr27QI44ePXlsDb2-aUMh8iFslu%20fS5%20D4Rr2uQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/pgeq9AjBNfH2brQdCAnzCA==/lcGhQy-XvOb8fImpBDNZ1Ggi3lBpRF8L-unI9wPeCd8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/rTclybRbFu4QcmATgW6keA==/ZFnu4csd1so1R37CKuuH05%20Ku-dRzu7gm%20Lf6cYMvvc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/hQufTDvfeoUps9kI2ZsdKw==/xTpRLVBVHMxHhrltnJwFrnHfkwUYTV9f-N5-6JHFnOM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/iXQJpSdknB6FV25x1hVd2w==/TZsegZw-ulBAs-3rSQz-bAd-B9qrmQR-anuzmZkAKSY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/OHDPhwIb3mOYMRmiQ1hvew==/AlZT9amRzl725PKaz6YlBW2k5FUtzVlkFkoRjbJumKE=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/8XZ8WFPOx09brzAY1lqjsQ==/8V8hj3AtmNMUr5hS1iIuBi9vEmqmYIyAEnTHheijPLg=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Fl55N5RRLjMND5akreoKnQ==/H9rJFoHMdFQioYxpKDhlrmQze8c68klfN0KBMTa540Y=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/jGguOKQNwX-gAZolX9a71w==/tdpC7kcC97sH3gZMqX2YJ8ZQdjf7SQf6nXIcMNGMpV8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/MIH15QlrZaKpxS0hwaXDXQ==/ztVBvJ0KzOkWq7nBHtnFd3QnUagcVLct5Av8BsRF0nw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/k5a9k2hzTS1GwRxGK-vEwA==/sYeK9aKpr85-7gIn-YttxjKi7LZtVuIbMnlHAHY6O-w=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/m17FXGk8qCQUADAeR%20FnPg==/7oLWHKJ4z2Vfp4TXexTdxg0MzlDG4rjhIBPrSdDc38o=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/SWHQMSOZpeeU25mBK10IBA==/eekR4RrDtWEQ3dhmZnLGUVfTMw7E9MRgHHU5tPbRUyk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/sLRGKqO94Ic2O2CFgdzxcw==/q9Uz0pAjx%20ai-Lv5VtEhFksoyZhnk8KfSqtqLPfvxp8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/YQRzfLGYMoTSc-DaauH0YQ==/s466zmtRl0%20%20puTLUjfga9pnQTBJ%2092KiCFXoWbQtps=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/x9cONJvGFPnmaeieJYclwA==/e8pQIXE9bgydyGNGSjISq357eVhh-D20zhKLyS3EXY0=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/GJQhKtVf2ry4Y-PeNOBaEg==/z2JxOIXpkulDtIMUQRCo4Z5r9ZP7vaeF-mX4%20oMaYSY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/mFO2eafYtpO85lewo9LrkA==/n7EnqXGaEgJu64cwjjtlxNc2ehj0mPp5aQihu-BGaCY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/iESnArYUqjgmN%20ErZNeR9w==/nMd1r7fvSWXpomELQkw6qRX1wz1CLZEqC-LkQqh8d3Q=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/Ij4LTOsMYj03sda0xq65hA==/dPHHWZwLvumq2ODazRTgc3ep%20BpjXtR6tlAHKI17Hx8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/ecc-nhwM2LefFklQlyALvA==/6I1HpZT8eKZAqdkjquOe5pGQK7tlOz0lqnKRAT3Vhmw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/gAWTjZzoaaG8MpmNI2WuiQ==/hS4VGI9BKKpJNp7rKFy44YWUQ8DzFmuRzjptY7et-9s=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/QLWAZgTXqfK7BzfVcW%20FhQ==/bOjnYj5fogz9MYnKZ55LCw4knvfJxXrFHBx9BoDOn9A=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/uO1Mz-upj%208qbRbgUQis6g==</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Survey/Index/J0%20OuZsHBuWaCzYsTvLlDg==/L05B2RDnX9ZbiPS7SZBNWa8ye%20QYO0WsQP9OuUOzVWI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/hqsQ2u5yybcrrC6Fyicj-g==</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/HhVvj0P</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/Wwk1PEd</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/m3RGfUt</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/lDVq-LFCB6mf%208sRH%20Vz6A==</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/t0ZNnb2</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/53IhWwk</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/HhVvB0P</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/J9Xxl2z</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/e5K9YMm</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/kZzE4SH</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/zFfTth8</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/dSrg7LO</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/K9Yym31</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/cRq76K0</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/f6t08Nn</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/3Ssg7uA</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/VJjXxD2</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/1GUui9O</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/LlZzF4T</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/XLlZzF4</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/KkYyD3RGg6</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/XxD2RFf6t0</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/2G6Vuj9xCc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/_/chrome/newtab?ie=UTF-8</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/th8vBbP64J</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/survey/e5s9YMma1G</t>
   </si>
 </sst>
 </file>
@@ -426,18 +582,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
